--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF003-VaccinationFileTemplate-MMR.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF003-VaccinationFileTemplate-MMR.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11505"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Temp account no.</t>
   </si>
@@ -274,12 +279,15 @@
   </si>
   <si>
     <t>To be injected (Y/N)</t>
+  </si>
+  <si>
+    <t>Service receive date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
@@ -1990,6 +1998,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2037,7 +2048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2072,7 +2083,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2281,7 +2292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2380,116 +2391,124 @@
       <c r="C18" s="35"/>
     </row>
     <row r="19" spans="1:3" s="24" customFormat="1">
-      <c r="A19" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1">
-      <c r="A20" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:3" s="24" customFormat="1">
+      <c r="A21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:3" s="24" customFormat="1">
+      <c r="A22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" s="15" customFormat="1">
-      <c r="A22" s="16" t="s">
+      <c r="B23" s="36"/>
+    </row>
+    <row r="24" spans="1:3" s="15" customFormat="1">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="36"/>
-    </row>
-    <row r="24" spans="1:3" s="16" customFormat="1">
       <c r="B24" s="36"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>67</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="36"/>
-      <c r="C25" s="32"/>
-    </row>
-    <row r="26" spans="1:3" s="16" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A26" s="23" t="s">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="26" spans="1:3" s="16" customFormat="1">
       <c r="B26" s="36"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" s="16" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="B27" s="36"/>
-    </row>
-    <row r="28" spans="1:3" s="16" customFormat="1">
-      <c r="A28" s="21" t="s">
+      <c r="C27" s="32"/>
+    </row>
+    <row r="28" spans="1:3" s="16" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30" spans="1:3" s="16" customFormat="1">
+      <c r="A30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="1:3" s="16" customFormat="1">
-      <c r="A29" s="22" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="32"/>
+    </row>
+    <row r="31" spans="1:3" s="16" customFormat="1">
+      <c r="A31" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="32"/>
-    </row>
-    <row r="30" spans="1:3" s="16" customFormat="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3" s="24" customFormat="1">
-      <c r="A31" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="32"/>
     </row>
-    <row r="32" spans="1:3" s="24" customFormat="1" ht="30">
-      <c r="A32" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="37"/>
+    <row r="32" spans="1:3" s="16" customFormat="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:3" s="24" customFormat="1">
       <c r="A33" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="32"/>
     </row>
-    <row r="34" spans="1:3" s="24" customFormat="1">
-      <c r="A34" s="22" t="s">
-        <v>74</v>
+    <row r="34" spans="1:3" s="24" customFormat="1" ht="30">
+      <c r="A34" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:3" s="24" customFormat="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="B35" s="37"/>
       <c r="C35" s="32"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:3" s="24" customFormat="1">
+      <c r="A36" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="32"/>
+    </row>
+    <row r="37" spans="1:3" s="24" customFormat="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="32"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B38" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2504,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF197"/>
+  <dimension ref="A1:AG197"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -2541,11 +2560,12 @@
     <col min="28" max="28" width="23.28515625" customWidth="1"/>
     <col min="29" max="29" width="4.7109375" style="55" customWidth="1"/>
     <col min="30" max="30" width="16.7109375" customWidth="1"/>
-    <col min="31" max="31" width="20.5703125" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="20" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="71" t="s">
         <v>83</v>
       </c>
@@ -2587,9 +2607,10 @@
         <v>80</v>
       </c>
       <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-    </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" ht="31.5" customHeight="1">
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="70"/>
+    </row>
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -2630,8 +2651,9 @@
       <c r="AD2" s="54"/>
       <c r="AE2" s="54"/>
       <c r="AF2" s="54"/>
-    </row>
-    <row r="3" spans="1:32" s="6" customFormat="1" ht="58.5" customHeight="1">
+      <c r="AG2" s="54"/>
+    </row>
+    <row r="3" spans="1:33" s="6" customFormat="1" ht="58.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2713,13 +2735,16 @@
         <v>76</v>
       </c>
       <c r="AE3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="57" t="s">
+      <c r="AG3" s="57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="17" customFormat="1" ht="15.75">
+    <row r="4" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2750,10 +2775,11 @@
       <c r="AB4" s="28"/>
       <c r="AC4" s="42"/>
       <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
+      <c r="AE4" s="20"/>
       <c r="AF4" s="28"/>
-    </row>
-    <row r="5" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AG4" s="28"/>
+    </row>
+    <row r="5" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D5" s="18"/>
       <c r="G5" s="45"/>
       <c r="H5" s="65"/>
@@ -2767,8 +2793,9 @@
       <c r="Y5" s="47"/>
       <c r="AA5" s="43"/>
       <c r="AC5" s="43"/>
-    </row>
-    <row r="6" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE5" s="20"/>
+    </row>
+    <row r="6" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D6" s="18"/>
       <c r="G6" s="45"/>
       <c r="H6" s="65"/>
@@ -2782,8 +2809,9 @@
       <c r="Y6" s="47"/>
       <c r="AA6" s="43"/>
       <c r="AC6" s="43"/>
-    </row>
-    <row r="7" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE6" s="20"/>
+    </row>
+    <row r="7" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D7" s="18"/>
       <c r="G7" s="45"/>
       <c r="H7" s="65"/>
@@ -2796,8 +2824,9 @@
       <c r="Y7" s="47"/>
       <c r="AA7" s="43"/>
       <c r="AC7" s="43"/>
-    </row>
-    <row r="8" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE7" s="20"/>
+    </row>
+    <row r="8" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D8" s="18"/>
       <c r="G8" s="45"/>
       <c r="H8" s="65"/>
@@ -2810,8 +2839,9 @@
       <c r="Y8" s="47"/>
       <c r="AA8" s="43"/>
       <c r="AC8" s="43"/>
-    </row>
-    <row r="9" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D9" s="18"/>
       <c r="G9" s="45"/>
       <c r="H9" s="65"/>
@@ -2824,8 +2854,9 @@
       <c r="Y9" s="45"/>
       <c r="AA9" s="43"/>
       <c r="AC9" s="43"/>
-    </row>
-    <row r="10" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE9" s="20"/>
+    </row>
+    <row r="10" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D10" s="18"/>
       <c r="G10" s="45"/>
       <c r="H10" s="65"/>
@@ -2838,8 +2869,9 @@
       <c r="Y10" s="45"/>
       <c r="AA10" s="43"/>
       <c r="AC10" s="43"/>
-    </row>
-    <row r="11" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D11" s="18"/>
       <c r="G11" s="45"/>
       <c r="H11" s="65"/>
@@ -2853,8 +2885,9 @@
       <c r="Y11" s="45"/>
       <c r="AA11" s="43"/>
       <c r="AC11" s="43"/>
-    </row>
-    <row r="12" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE11" s="20"/>
+    </row>
+    <row r="12" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D12" s="18"/>
       <c r="G12" s="45"/>
       <c r="H12" s="65"/>
@@ -2868,8 +2901,9 @@
       <c r="Y12" s="47"/>
       <c r="AA12" s="43"/>
       <c r="AC12" s="43"/>
-    </row>
-    <row r="13" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D13" s="18"/>
       <c r="G13" s="45"/>
       <c r="H13" s="65"/>
@@ -2882,8 +2916,9 @@
       <c r="Y13" s="45"/>
       <c r="AA13" s="43"/>
       <c r="AC13" s="43"/>
-    </row>
-    <row r="14" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE13" s="20"/>
+    </row>
+    <row r="14" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D14" s="18"/>
       <c r="G14" s="45"/>
       <c r="H14" s="65"/>
@@ -2896,8 +2931,9 @@
       <c r="Y14" s="45"/>
       <c r="AA14" s="43"/>
       <c r="AC14" s="43"/>
-    </row>
-    <row r="15" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE14" s="20"/>
+    </row>
+    <row r="15" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D15" s="18"/>
       <c r="G15" s="45"/>
       <c r="H15" s="65"/>
@@ -2910,8 +2946,9 @@
       <c r="Y15" s="45"/>
       <c r="AA15" s="43"/>
       <c r="AC15" s="43"/>
-    </row>
-    <row r="16" spans="1:32" s="17" customFormat="1" ht="15.75">
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:33" s="17" customFormat="1" ht="15.75">
       <c r="D16" s="18"/>
       <c r="G16" s="45"/>
       <c r="H16" s="65"/>
@@ -2924,8 +2961,9 @@
       <c r="Y16" s="45"/>
       <c r="AA16" s="43"/>
       <c r="AC16" s="43"/>
-    </row>
-    <row r="17" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D17" s="18"/>
       <c r="G17" s="45"/>
       <c r="H17" s="65"/>
@@ -2938,8 +2976,9 @@
       <c r="Y17" s="45"/>
       <c r="AA17" s="43"/>
       <c r="AC17" s="43"/>
-    </row>
-    <row r="18" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D18" s="18"/>
       <c r="G18" s="45"/>
       <c r="H18" s="65"/>
@@ -2952,8 +2991,9 @@
       <c r="Y18" s="45"/>
       <c r="AA18" s="43"/>
       <c r="AC18" s="43"/>
-    </row>
-    <row r="19" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D19" s="18"/>
       <c r="G19" s="45"/>
       <c r="H19" s="65"/>
@@ -2966,8 +3006,9 @@
       <c r="Y19" s="45"/>
       <c r="AA19" s="43"/>
       <c r="AC19" s="43"/>
-    </row>
-    <row r="20" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE19" s="20"/>
+    </row>
+    <row r="20" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D20" s="18"/>
       <c r="G20" s="45"/>
       <c r="H20" s="65"/>
@@ -2980,8 +3021,9 @@
       <c r="Y20" s="45"/>
       <c r="AA20" s="43"/>
       <c r="AC20" s="43"/>
-    </row>
-    <row r="21" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D21" s="18"/>
       <c r="G21" s="45"/>
       <c r="H21" s="65"/>
@@ -2994,8 +3036,9 @@
       <c r="Y21" s="45"/>
       <c r="AA21" s="43"/>
       <c r="AC21" s="43"/>
-    </row>
-    <row r="22" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE21" s="20"/>
+    </row>
+    <row r="22" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D22" s="18"/>
       <c r="G22" s="45"/>
       <c r="H22" s="65"/>
@@ -3008,8 +3051,9 @@
       <c r="Y22" s="45"/>
       <c r="AA22" s="43"/>
       <c r="AC22" s="43"/>
-    </row>
-    <row r="23" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE22" s="20"/>
+    </row>
+    <row r="23" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D23" s="18"/>
       <c r="G23" s="45"/>
       <c r="H23" s="65"/>
@@ -3022,8 +3066,9 @@
       <c r="Y23" s="45"/>
       <c r="AA23" s="43"/>
       <c r="AC23" s="43"/>
-    </row>
-    <row r="24" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE23" s="20"/>
+    </row>
+    <row r="24" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D24" s="18"/>
       <c r="G24" s="45"/>
       <c r="H24" s="65"/>
@@ -3036,8 +3081,9 @@
       <c r="Y24" s="45"/>
       <c r="AA24" s="43"/>
       <c r="AC24" s="43"/>
-    </row>
-    <row r="25" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE24" s="20"/>
+    </row>
+    <row r="25" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D25" s="18"/>
       <c r="G25" s="45"/>
       <c r="H25" s="65"/>
@@ -3050,8 +3096,9 @@
       <c r="Y25" s="45"/>
       <c r="AA25" s="43"/>
       <c r="AC25" s="43"/>
-    </row>
-    <row r="26" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE25" s="20"/>
+    </row>
+    <row r="26" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D26" s="18"/>
       <c r="G26" s="45"/>
       <c r="H26" s="65"/>
@@ -3064,8 +3111,9 @@
       <c r="Y26" s="45"/>
       <c r="AA26" s="43"/>
       <c r="AC26" s="43"/>
-    </row>
-    <row r="27" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE26" s="20"/>
+    </row>
+    <row r="27" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D27" s="18"/>
       <c r="G27" s="45"/>
       <c r="H27" s="65"/>
@@ -3078,8 +3126,9 @@
       <c r="Y27" s="45"/>
       <c r="AA27" s="43"/>
       <c r="AC27" s="43"/>
-    </row>
-    <row r="28" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE27" s="20"/>
+    </row>
+    <row r="28" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D28" s="18"/>
       <c r="G28" s="45"/>
       <c r="H28" s="65"/>
@@ -3092,8 +3141,9 @@
       <c r="Y28" s="45"/>
       <c r="AA28" s="43"/>
       <c r="AC28" s="43"/>
-    </row>
-    <row r="29" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE28" s="20"/>
+    </row>
+    <row r="29" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D29" s="18"/>
       <c r="G29" s="45"/>
       <c r="H29" s="65"/>
@@ -3106,8 +3156,9 @@
       <c r="Y29" s="45"/>
       <c r="AA29" s="43"/>
       <c r="AC29" s="43"/>
-    </row>
-    <row r="30" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE29" s="20"/>
+    </row>
+    <row r="30" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D30" s="18"/>
       <c r="G30" s="45"/>
       <c r="H30" s="65"/>
@@ -3120,8 +3171,9 @@
       <c r="Y30" s="45"/>
       <c r="AA30" s="43"/>
       <c r="AC30" s="43"/>
-    </row>
-    <row r="31" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE30" s="20"/>
+    </row>
+    <row r="31" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D31" s="18"/>
       <c r="G31" s="45"/>
       <c r="H31" s="65"/>
@@ -3134,8 +3186,9 @@
       <c r="Y31" s="45"/>
       <c r="AA31" s="43"/>
       <c r="AC31" s="43"/>
-    </row>
-    <row r="32" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE31" s="20"/>
+    </row>
+    <row r="32" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D32" s="18"/>
       <c r="G32" s="45"/>
       <c r="H32" s="65"/>
@@ -3148,8 +3201,9 @@
       <c r="Y32" s="45"/>
       <c r="AA32" s="43"/>
       <c r="AC32" s="43"/>
-    </row>
-    <row r="33" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE32" s="20"/>
+    </row>
+    <row r="33" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D33" s="18"/>
       <c r="G33" s="45"/>
       <c r="H33" s="65"/>
@@ -3162,8 +3216,9 @@
       <c r="Y33" s="45"/>
       <c r="AA33" s="43"/>
       <c r="AC33" s="43"/>
-    </row>
-    <row r="34" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE33" s="20"/>
+    </row>
+    <row r="34" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D34" s="18"/>
       <c r="G34" s="45"/>
       <c r="H34" s="65"/>
@@ -3176,8 +3231,9 @@
       <c r="Y34" s="45"/>
       <c r="AA34" s="43"/>
       <c r="AC34" s="43"/>
-    </row>
-    <row r="35" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE34" s="20"/>
+    </row>
+    <row r="35" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D35" s="18"/>
       <c r="G35" s="45"/>
       <c r="H35" s="65"/>
@@ -3190,8 +3246,9 @@
       <c r="Y35" s="45"/>
       <c r="AA35" s="43"/>
       <c r="AC35" s="43"/>
-    </row>
-    <row r="36" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE35" s="20"/>
+    </row>
+    <row r="36" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D36" s="18"/>
       <c r="G36" s="45"/>
       <c r="H36" s="65"/>
@@ -3204,8 +3261,9 @@
       <c r="Y36" s="45"/>
       <c r="AA36" s="43"/>
       <c r="AC36" s="43"/>
-    </row>
-    <row r="37" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE36" s="20"/>
+    </row>
+    <row r="37" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D37" s="18"/>
       <c r="G37" s="45"/>
       <c r="H37" s="65"/>
@@ -3218,8 +3276,9 @@
       <c r="Y37" s="45"/>
       <c r="AA37" s="43"/>
       <c r="AC37" s="43"/>
-    </row>
-    <row r="38" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE37" s="20"/>
+    </row>
+    <row r="38" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D38" s="18"/>
       <c r="G38" s="45"/>
       <c r="H38" s="65"/>
@@ -3232,8 +3291,9 @@
       <c r="Y38" s="45"/>
       <c r="AA38" s="43"/>
       <c r="AC38" s="43"/>
-    </row>
-    <row r="39" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE38" s="20"/>
+    </row>
+    <row r="39" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D39" s="18"/>
       <c r="G39" s="45"/>
       <c r="H39" s="65"/>
@@ -3246,8 +3306,9 @@
       <c r="Y39" s="45"/>
       <c r="AA39" s="43"/>
       <c r="AC39" s="43"/>
-    </row>
-    <row r="40" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE39" s="20"/>
+    </row>
+    <row r="40" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D40" s="18"/>
       <c r="G40" s="45"/>
       <c r="H40" s="65"/>
@@ -3260,8 +3321,9 @@
       <c r="Y40" s="45"/>
       <c r="AA40" s="43"/>
       <c r="AC40" s="43"/>
-    </row>
-    <row r="41" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE40" s="20"/>
+    </row>
+    <row r="41" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D41" s="18"/>
       <c r="G41" s="45"/>
       <c r="H41" s="65"/>
@@ -3274,8 +3336,9 @@
       <c r="Y41" s="45"/>
       <c r="AA41" s="43"/>
       <c r="AC41" s="43"/>
-    </row>
-    <row r="42" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE41" s="20"/>
+    </row>
+    <row r="42" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D42" s="18"/>
       <c r="G42" s="45"/>
       <c r="H42" s="65"/>
@@ -3288,8 +3351,9 @@
       <c r="Y42" s="45"/>
       <c r="AA42" s="43"/>
       <c r="AC42" s="43"/>
-    </row>
-    <row r="43" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE42" s="20"/>
+    </row>
+    <row r="43" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D43" s="18"/>
       <c r="G43" s="45"/>
       <c r="H43" s="65"/>
@@ -3302,8 +3366,9 @@
       <c r="Y43" s="45"/>
       <c r="AA43" s="43"/>
       <c r="AC43" s="43"/>
-    </row>
-    <row r="44" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE43" s="20"/>
+    </row>
+    <row r="44" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D44" s="18"/>
       <c r="G44" s="45"/>
       <c r="H44" s="65"/>
@@ -3316,8 +3381,9 @@
       <c r="Y44" s="45"/>
       <c r="AA44" s="43"/>
       <c r="AC44" s="43"/>
-    </row>
-    <row r="45" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE44" s="20"/>
+    </row>
+    <row r="45" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D45" s="18"/>
       <c r="G45" s="45"/>
       <c r="H45" s="65"/>
@@ -3330,8 +3396,9 @@
       <c r="Y45" s="45"/>
       <c r="AA45" s="43"/>
       <c r="AC45" s="43"/>
-    </row>
-    <row r="46" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE45" s="20"/>
+    </row>
+    <row r="46" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D46" s="18"/>
       <c r="G46" s="45"/>
       <c r="H46" s="65"/>
@@ -3344,8 +3411,9 @@
       <c r="Y46" s="45"/>
       <c r="AA46" s="43"/>
       <c r="AC46" s="43"/>
-    </row>
-    <row r="47" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE46" s="20"/>
+    </row>
+    <row r="47" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D47" s="18"/>
       <c r="G47" s="45"/>
       <c r="H47" s="65"/>
@@ -3358,8 +3426,9 @@
       <c r="Y47" s="45"/>
       <c r="AA47" s="43"/>
       <c r="AC47" s="43"/>
-    </row>
-    <row r="48" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE47" s="20"/>
+    </row>
+    <row r="48" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D48" s="18"/>
       <c r="G48" s="45"/>
       <c r="H48" s="65"/>
@@ -3372,8 +3441,9 @@
       <c r="Y48" s="45"/>
       <c r="AA48" s="43"/>
       <c r="AC48" s="43"/>
-    </row>
-    <row r="49" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE48" s="20"/>
+    </row>
+    <row r="49" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D49" s="18"/>
       <c r="G49" s="45"/>
       <c r="H49" s="65"/>
@@ -3386,8 +3456,9 @@
       <c r="Y49" s="45"/>
       <c r="AA49" s="43"/>
       <c r="AC49" s="43"/>
-    </row>
-    <row r="50" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE49" s="20"/>
+    </row>
+    <row r="50" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D50" s="18"/>
       <c r="G50" s="45"/>
       <c r="H50" s="65"/>
@@ -3400,8 +3471,9 @@
       <c r="Y50" s="45"/>
       <c r="AA50" s="43"/>
       <c r="AC50" s="43"/>
-    </row>
-    <row r="51" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE50" s="20"/>
+    </row>
+    <row r="51" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D51" s="18"/>
       <c r="G51" s="45"/>
       <c r="H51" s="65"/>
@@ -3414,8 +3486,9 @@
       <c r="Y51" s="45"/>
       <c r="AA51" s="43"/>
       <c r="AC51" s="43"/>
-    </row>
-    <row r="52" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE51" s="20"/>
+    </row>
+    <row r="52" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D52" s="18"/>
       <c r="G52" s="45"/>
       <c r="H52" s="65"/>
@@ -3428,8 +3501,9 @@
       <c r="Y52" s="45"/>
       <c r="AA52" s="43"/>
       <c r="AC52" s="43"/>
-    </row>
-    <row r="53" spans="4:29" s="17" customFormat="1" ht="15.75">
+      <c r="AE52" s="20"/>
+    </row>
+    <row r="53" spans="4:31" s="17" customFormat="1" ht="15.75">
       <c r="D53" s="18"/>
       <c r="G53" s="45"/>
       <c r="H53" s="65"/>
@@ -3442,8 +3516,9 @@
       <c r="Y53" s="45"/>
       <c r="AA53" s="43"/>
       <c r="AC53" s="43"/>
-    </row>
-    <row r="54" spans="4:29">
+      <c r="AE53" s="20"/>
+    </row>
+    <row r="54" spans="4:31">
       <c r="G54" s="46"/>
       <c r="H54" s="65"/>
       <c r="J54" s="30"/>
@@ -3452,7 +3527,7 @@
       <c r="AA54" s="44"/>
       <c r="AC54" s="44"/>
     </row>
-    <row r="55" spans="4:29">
+    <row r="55" spans="4:31">
       <c r="G55" s="46"/>
       <c r="H55" s="65"/>
       <c r="J55" s="30"/>
@@ -3461,7 +3536,7 @@
       <c r="AA55" s="44"/>
       <c r="AC55" s="44"/>
     </row>
-    <row r="56" spans="4:29">
+    <row r="56" spans="4:31">
       <c r="G56" s="46"/>
       <c r="H56" s="65"/>
       <c r="J56" s="30"/>
@@ -3470,7 +3545,7 @@
       <c r="AA56" s="44"/>
       <c r="AC56" s="44"/>
     </row>
-    <row r="57" spans="4:29">
+    <row r="57" spans="4:31">
       <c r="G57" s="46"/>
       <c r="H57" s="65"/>
       <c r="J57" s="30"/>
@@ -3479,7 +3554,7 @@
       <c r="AA57" s="44"/>
       <c r="AC57" s="44"/>
     </row>
-    <row r="58" spans="4:29">
+    <row r="58" spans="4:31">
       <c r="G58" s="46"/>
       <c r="H58" s="65"/>
       <c r="J58" s="30"/>
@@ -3488,7 +3563,7 @@
       <c r="AA58" s="44"/>
       <c r="AC58" s="44"/>
     </row>
-    <row r="59" spans="4:29">
+    <row r="59" spans="4:31">
       <c r="G59" s="46"/>
       <c r="H59" s="65"/>
       <c r="J59" s="30"/>
@@ -3497,7 +3572,7 @@
       <c r="AA59" s="44"/>
       <c r="AC59" s="44"/>
     </row>
-    <row r="60" spans="4:29">
+    <row r="60" spans="4:31">
       <c r="G60" s="46"/>
       <c r="H60" s="65"/>
       <c r="J60" s="30"/>
@@ -3506,7 +3581,7 @@
       <c r="AA60" s="44"/>
       <c r="AC60" s="44"/>
     </row>
-    <row r="61" spans="4:29">
+    <row r="61" spans="4:31">
       <c r="G61" s="46"/>
       <c r="H61" s="65"/>
       <c r="J61" s="30"/>
@@ -3515,7 +3590,7 @@
       <c r="AA61" s="44"/>
       <c r="AC61" s="44"/>
     </row>
-    <row r="62" spans="4:29">
+    <row r="62" spans="4:31">
       <c r="G62" s="46"/>
       <c r="H62" s="65"/>
       <c r="J62" s="30"/>
@@ -3524,7 +3599,7 @@
       <c r="AA62" s="44"/>
       <c r="AC62" s="44"/>
     </row>
-    <row r="63" spans="4:29">
+    <row r="63" spans="4:31">
       <c r="G63" s="46"/>
       <c r="H63" s="65"/>
       <c r="J63" s="30"/>
@@ -3533,7 +3608,7 @@
       <c r="AA63" s="44"/>
       <c r="AC63" s="44"/>
     </row>
-    <row r="64" spans="4:29">
+    <row r="64" spans="4:31">
       <c r="G64" s="46"/>
       <c r="H64" s="65"/>
       <c r="J64" s="30"/>
@@ -4521,7 +4596,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="T1:Z1"/>
